--- a/code/results/storm_j20_7200/benders_results_j20.xlsx
+++ b/code/results/storm_j20_7200/benders_results_j20.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="benders_results_0" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="582">
   <si>
     <t xml:space="preserve">instance</t>
   </si>
@@ -1696,6 +1696,12 @@
     <t xml:space="preserve">j2064_2</t>
   </si>
   <si>
+    <t xml:space="preserve">percent solved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average percent solved</t>
+  </si>
+  <si>
     <t xml:space="preserve">j2064_3</t>
   </si>
   <si>
@@ -1709,6 +1715,9 @@
   </si>
   <si>
     <t xml:space="preserve">(excl. instances where no feasible solution was found)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average avg gap</t>
   </si>
   <si>
     <t xml:space="preserve">j2064_5</t>
@@ -1732,10 +1741,16 @@
     <t xml:space="preserve">median iterations</t>
   </si>
   <si>
+    <t xml:space="preserve">average median iterations</t>
+  </si>
+  <si>
     <t xml:space="preserve">j2064_8</t>
   </si>
   <si>
     <t xml:space="preserve">avg. iteration time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average avg iteration time</t>
   </si>
   <si>
     <t xml:space="preserve">j2064_9</t>
@@ -1745,6 +1760,9 @@
   </si>
   <si>
     <t xml:space="preserve">(incl. 7200 for instances not solved to optimality)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average avg solve time</t>
   </si>
   <si>
     <t xml:space="preserve">j2064_10</t>
@@ -1760,11 +1778,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1781,112 +1800,16 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1894,23 +1817,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1934,23 +1842,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1962,91 +1853,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -2055,10 +1869,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L555"/>
+  <dimension ref="A1:Q555"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A520" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L554" activeCellId="0" sqref="L554"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K520" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q552" activeCellId="0" sqref="Q552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16295,10 +16109,24 @@
       <c r="H547" s="0" t="n">
         <v>21.927</v>
       </c>
+      <c r="J547" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="K547" s="0" t="n">
+        <f aca="false">100*COUNTIF(E20:E555,0)/ROWS(E20:E555)</f>
+        <v>80.7835820895522</v>
+      </c>
+      <c r="P547" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q547" s="0" t="n">
+        <f aca="false">AVERAGE(benders_results_0:benders_results_15!K547:K547)</f>
+        <v>48.4608208955224</v>
+      </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B548" s="0" t="n">
         <v>0</v>
@@ -16322,7 +16150,7 @@
         <v>9.856</v>
       </c>
       <c r="J548" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K548" s="1" t="n">
         <f aca="false">COUNTIF(E20:E555,0)</f>
@@ -16332,7 +16160,7 @@
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B549" s="0" t="n">
         <v>0</v>
@@ -16356,19 +16184,26 @@
         <v>15.243</v>
       </c>
       <c r="J549" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K549" s="1" t="n">
         <f aca="false">AVERAGEIF(E20:E555,"&lt;&gt;*nan")</f>
         <v>0</v>
       </c>
       <c r="L549" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
+      </c>
+      <c r="P549" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q549" s="0" t="n">
+        <f aca="false">AVERAGE(benders_results_0:benders_results_15!K549:K549)</f>
+        <v>0.0892500653062078</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B550" s="0" t="n">
         <v>0</v>
@@ -16392,19 +16227,19 @@
         <v>8.294</v>
       </c>
       <c r="J550" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="K550" s="1" t="e">
         <f aca="false">AVERAGEIFS(E20:E555,E20:E555,"&lt;&gt;*nan",E20:E555,"&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L550" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B551" s="0" t="n">
         <v>0</v>
@@ -16428,19 +16263,19 @@
         <v>8.045</v>
       </c>
       <c r="J551" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="K551" s="1" t="n">
         <f aca="false">AVERAGEIF(F20:F555,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
       <c r="L551" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B552" s="0" t="n">
         <v>0</v>
@@ -16464,19 +16299,26 @@
         <v>10.747</v>
       </c>
       <c r="J552" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K552" s="1" t="n">
         <f aca="false">MEDIAN(IF(F20:F555&lt;&gt;0,F20:F555))</f>
         <v>1</v>
       </c>
       <c r="L552" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
+      </c>
+      <c r="P552" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q552" s="0" t="n">
+        <f aca="false">AVERAGE(benders_results_0:benders_results_15!K552:K552)</f>
+        <v>132.5</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B553" s="0" t="n">
         <v>0</v>
@@ -16500,19 +16342,26 @@
         <v>15.428</v>
       </c>
       <c r="J553" s="1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="K553" s="1" t="n">
         <f aca="false">AVERAGEIF(G20:G555,"&lt;&gt;*inf")</f>
         <v>123.507429561201</v>
       </c>
       <c r="L553" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
+      </c>
+      <c r="P553" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q553" s="0" t="n">
+        <f aca="false">AVERAGE(benders_results_0:benders_results_15!K553:K553)</f>
+        <v>127.527629817758</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B554" s="0" t="n">
         <v>0</v>
@@ -16536,19 +16385,26 @@
         <v>9.295</v>
       </c>
       <c r="J554" s="1" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="K554" s="1" t="n">
         <f aca="false">AVERAGE(H20:H555)</f>
         <v>1484.67742350746</v>
       </c>
       <c r="L554" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
+      </c>
+      <c r="P554" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q554" s="0" t="n">
+        <f aca="false">AVERAGE(benders_results_0:benders_results_15!K554:K554)</f>
+        <v>4372.11657462687</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B555" s="0" t="n">
         <v>0</v>
@@ -16572,7 +16428,7 @@
         <v>10.423</v>
       </c>
       <c r="J555" s="1" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="K555" s="1" t="n">
         <f aca="false">AVERAGEIF(H20:H555,"&lt;7200")</f>
@@ -16598,8 +16454,8 @@
   </sheetPr>
   <dimension ref="A1:L555"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A536" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L554" activeCellId="0" sqref="L554"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H536" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P547" activeCellId="0" sqref="P547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30836,10 +30692,17 @@
       <c r="H547" s="0" t="n">
         <v>1252.316</v>
       </c>
+      <c r="J547" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="K547" s="0" t="n">
+        <f aca="false">100*COUNTIF(E20:E555,0)/ROWS(E20:E555)</f>
+        <v>39.5522388059701</v>
+      </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B548" s="0" t="n">
         <v>5</v>
@@ -30863,7 +30726,7 @@
         <v>1668.424</v>
       </c>
       <c r="J548" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K548" s="1" t="n">
         <f aca="false">COUNTIF(E20:E555,0)</f>
@@ -30873,7 +30736,7 @@
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B549" s="0" t="n">
         <v>5</v>
@@ -30897,19 +30760,19 @@
         <v>7200</v>
       </c>
       <c r="J549" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K549" s="1" t="n">
         <f aca="false">AVERAGEIF(E20:E555,"&lt;&gt;*nan")</f>
         <v>0.109132420091324</v>
       </c>
       <c r="L549" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B550" s="0" t="n">
         <v>5</v>
@@ -30933,19 +30796,19 @@
         <v>1441.317</v>
       </c>
       <c r="J550" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="K550" s="1" t="n">
         <f aca="false">AVERAGEIFS(E20:E555,E20:E555,"&lt;&gt;*nan",E20:E555,"&lt;&gt;0")</f>
         <v>0.211504424778761</v>
       </c>
       <c r="L550" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B551" s="0" t="n">
         <v>5</v>
@@ -30969,19 +30832,19 @@
         <v>4067.199</v>
       </c>
       <c r="J551" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="K551" s="1" t="n">
         <f aca="false">AVERAGEIF(F20:F555,"&lt;&gt;0")</f>
         <v>345.189497716895</v>
       </c>
       <c r="L551" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B552" s="0" t="n">
         <v>5</v>
@@ -31005,19 +30868,19 @@
         <v>865.488</v>
       </c>
       <c r="J552" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K552" s="1" t="n">
         <f aca="false">MEDIAN(IF(F20:F555&lt;&gt;0,F20:F555))</f>
         <v>173</v>
       </c>
       <c r="L552" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B553" s="0" t="n">
         <v>5</v>
@@ -31041,19 +30904,19 @@
         <v>7200</v>
       </c>
       <c r="J553" s="1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="K553" s="1" t="n">
         <f aca="false">AVERAGEIF(G20:G555,"&lt;&gt;*inf")</f>
         <v>124.838376712329</v>
       </c>
       <c r="L553" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B554" s="0" t="n">
         <v>5</v>
@@ -31077,19 +30940,19 @@
         <v>1314.712</v>
       </c>
       <c r="J554" s="1" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="K554" s="1" t="n">
         <f aca="false">AVERAGE(H20:H555)</f>
         <v>5181.70813432836</v>
       </c>
       <c r="L554" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B555" s="0" t="n">
         <v>5</v>
@@ -31113,7 +30976,7 @@
         <v>1894.511</v>
       </c>
       <c r="J555" s="1" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="K555" s="1" t="n">
         <f aca="false">AVERAGEIF(H20:H555,"&lt;7200")</f>
@@ -31124,7 +30987,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -31140,7 +31003,7 @@
   <dimension ref="A1:L555"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A523" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L554" activeCellId="0" sqref="L554"/>
+      <selection pane="topLeft" activeCell="J547" activeCellId="0" sqref="J547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45377,10 +45240,17 @@
       <c r="H547" s="0" t="n">
         <v>1178.295</v>
       </c>
+      <c r="J547" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="K547" s="0" t="n">
+        <f aca="false">100*COUNTIF(E20:E555,0)/ROWS(E20:E555)</f>
+        <v>36.7537313432836</v>
+      </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B548" s="0" t="n">
         <v>10</v>
@@ -45404,7 +45274,7 @@
         <v>2428.01</v>
       </c>
       <c r="J548" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K548" s="1" t="n">
         <f aca="false">COUNTIF(E20:E555,0)</f>
@@ -45414,7 +45284,7 @@
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B549" s="0" t="n">
         <v>10</v>
@@ -45438,19 +45308,19 @@
         <v>7200</v>
       </c>
       <c r="J549" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K549" s="1" t="n">
         <f aca="false">AVERAGEIF(E20:E555,"&lt;&gt;*nan")</f>
         <v>0.123114416475973</v>
       </c>
       <c r="L549" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B550" s="0" t="n">
         <v>10</v>
@@ -45474,19 +45344,19 @@
         <v>1634.942</v>
       </c>
       <c r="J550" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="K550" s="1" t="n">
         <f aca="false">AVERAGEIFS(E20:E555,E20:E555,"&lt;&gt;*nan",E20:E555,"&lt;&gt;0")</f>
         <v>0.224170833333333</v>
       </c>
       <c r="L550" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B551" s="0" t="n">
         <v>10</v>
@@ -45510,19 +45380,19 @@
         <v>4271.29</v>
       </c>
       <c r="J551" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="K551" s="1" t="n">
         <f aca="false">AVERAGEIF(F20:F555,"&lt;&gt;0")</f>
         <v>335.546910755149</v>
       </c>
       <c r="L551" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B552" s="0" t="n">
         <v>10</v>
@@ -45546,19 +45416,19 @@
         <v>935.348</v>
       </c>
       <c r="J552" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K552" s="1" t="n">
         <f aca="false">MEDIAN(IF(F20:F555&lt;&gt;0,F20:F555))</f>
         <v>178.5</v>
       </c>
       <c r="L552" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B553" s="0" t="n">
         <v>10</v>
@@ -45582,19 +45452,19 @@
         <v>7200</v>
       </c>
       <c r="J553" s="1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="K553" s="1" t="n">
         <f aca="false">AVERAGEIF(G20:G555,"&lt;&gt;*inf")</f>
         <v>126.587292906179</v>
       </c>
       <c r="L553" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B554" s="0" t="n">
         <v>10</v>
@@ -45618,19 +45488,19 @@
         <v>1340.098</v>
       </c>
       <c r="J554" s="1" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="K554" s="1" t="n">
         <f aca="false">AVERAGE(H20:H555)</f>
         <v>5406.23576679105</v>
       </c>
       <c r="L554" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B555" s="0" t="n">
         <v>10</v>
@@ -45654,7 +45524,7 @@
         <v>2114.178</v>
       </c>
       <c r="J555" s="1" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="K555" s="1" t="n">
         <f aca="false">AVERAGEIF(H20:H555,"&lt;7200")</f>
@@ -45665,7 +45535,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -45680,8 +45550,8 @@
   </sheetPr>
   <dimension ref="A1:L555"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A531" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L554" activeCellId="0" sqref="L554"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A531" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J550" activeCellId="0" sqref="J550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -59918,10 +59788,17 @@
       <c r="H547" s="0" t="n">
         <v>1220.884</v>
       </c>
+      <c r="J547" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="K547" s="0" t="n">
+        <f aca="false">100*COUNTIF(E20:E555,0)/ROWS(E20:E555)</f>
+        <v>36.7537313432836</v>
+      </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B548" s="0" t="n">
         <v>15</v>
@@ -59945,7 +59822,7 @@
         <v>2268.705</v>
       </c>
       <c r="J548" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K548" s="1" t="n">
         <f aca="false">COUNTIF(E20:E555,0)</f>
@@ -59955,7 +59832,7 @@
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B549" s="0" t="n">
         <v>15</v>
@@ -59979,19 +59856,19 @@
         <v>7200</v>
       </c>
       <c r="J549" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K549" s="1" t="n">
         <f aca="false">AVERAGEIF(E20:E555,"&lt;&gt;*nan")</f>
         <v>0.124753424657534</v>
       </c>
       <c r="L549" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B550" s="0" t="n">
         <v>15</v>
@@ -60015,19 +59892,19 @@
         <v>1629.066</v>
       </c>
       <c r="J550" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="K550" s="1" t="n">
         <f aca="false">AVERAGEIFS(E20:E555,E20:E555,"&lt;&gt;*nan",E20:E555,"&lt;&gt;0")</f>
         <v>0.226730290456432</v>
       </c>
       <c r="L550" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B551" s="0" t="n">
         <v>15</v>
@@ -60051,19 +59928,19 @@
         <v>4449.647</v>
       </c>
       <c r="J551" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="K551" s="1" t="n">
         <f aca="false">AVERAGEIF(F20:F555,"&lt;&gt;0")</f>
         <v>336.527397260274</v>
       </c>
       <c r="L551" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B552" s="0" t="n">
         <v>15</v>
@@ -60087,19 +59964,19 @@
         <v>958.734</v>
       </c>
       <c r="J552" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K552" s="1" t="n">
         <f aca="false">MEDIAN(IF(F20:F555&lt;&gt;0,F20:F555))</f>
         <v>177.5</v>
       </c>
       <c r="L552" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B553" s="0" t="n">
         <v>15</v>
@@ -60123,19 +60000,19 @@
         <v>7200</v>
       </c>
       <c r="J553" s="1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="K553" s="1" t="n">
         <f aca="false">AVERAGEIF(G20:G555,"&lt;&gt;*inf")</f>
         <v>135.177420091324</v>
       </c>
       <c r="L553" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B554" s="0" t="n">
         <v>15</v>
@@ -60159,19 +60036,19 @@
         <v>1314.05</v>
       </c>
       <c r="J554" s="1" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="K554" s="1" t="n">
         <f aca="false">AVERAGE(H20:H555)</f>
         <v>5415.8449738806</v>
       </c>
       <c r="L554" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B555" s="0" t="n">
         <v>15</v>
@@ -60195,7 +60072,7 @@
         <v>2238.005</v>
       </c>
       <c r="J555" s="1" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="K555" s="1" t="n">
         <f aca="false">AVERAGEIF(H20:H555,"&lt;7200")</f>
@@ -60206,7 +60083,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/code/results/storm_j20_7200/benders_results_j20.xlsx
+++ b/code/results/storm_j20_7200/benders_results_j20.xlsx
@@ -1871,8 +1871,8 @@
   </sheetPr>
   <dimension ref="A1:Q555"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K520" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q552" activeCellId="0" sqref="Q552"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B520" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K547" activeCellId="0" sqref="K547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16113,15 +16113,15 @@
         <v>557</v>
       </c>
       <c r="K547" s="0" t="n">
-        <f aca="false">100*COUNTIF(E20:E555,0)/ROWS(E20:E555)</f>
-        <v>80.7835820895522</v>
+        <f aca="false">100*COUNTIF(E2:E555,0)/ROWS(E2:E555)</f>
+        <v>81.2274368231047</v>
       </c>
       <c r="P547" s="0" t="s">
         <v>558</v>
       </c>
       <c r="Q547" s="0" t="n">
         <f aca="false">AVERAGE(benders_results_0:benders_results_15!K547:K547)</f>
-        <v>48.4608208955224</v>
+        <v>48.5108303249097</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16153,8 +16153,8 @@
         <v>560</v>
       </c>
       <c r="K548" s="1" t="n">
-        <f aca="false">COUNTIF(E20:E555,0)</f>
-        <v>433</v>
+        <f aca="false">COUNTIF(E2:E555,0)</f>
+        <v>450</v>
       </c>
       <c r="L548" s="1"/>
     </row>
@@ -16187,7 +16187,7 @@
         <v>562</v>
       </c>
       <c r="K549" s="1" t="n">
-        <f aca="false">AVERAGEIF(E20:E555,"&lt;&gt;*nan")</f>
+        <f aca="false">AVERAGEIF(E2:E555,"&lt;&gt;*nan")</f>
         <v>0</v>
       </c>
       <c r="L549" s="1" t="s">
@@ -16198,7 +16198,7 @@
       </c>
       <c r="Q549" s="0" t="n">
         <f aca="false">AVERAGE(benders_results_0:benders_results_15!K549:K549)</f>
-        <v>0.0892500653062078</v>
+        <v>0.0907665984896161</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16230,7 +16230,7 @@
         <v>566</v>
       </c>
       <c r="K550" s="1" t="e">
-        <f aca="false">AVERAGEIFS(E20:E555,E20:E555,"&lt;&gt;*nan",E20:E555,"&lt;&gt;0")</f>
+        <f aca="false">AVERAGEIFS(E2:E555,E2:E555,"&lt;&gt;*nan",E2:E555,"&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L550" s="1" t="s">
@@ -16266,7 +16266,7 @@
         <v>568</v>
       </c>
       <c r="K551" s="1" t="n">
-        <f aca="false">AVERAGEIF(F20:F555,"&lt;&gt;0")</f>
+        <f aca="false">AVERAGEIF(F2:F555,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
       <c r="L551" s="1" t="s">
@@ -16302,7 +16302,7 @@
         <v>571</v>
       </c>
       <c r="K552" s="1" t="n">
-        <f aca="false">MEDIAN(IF(F20:F555&lt;&gt;0,F20:F555))</f>
+        <f aca="false">MEDIAN(IF(F2:F555&lt;&gt;0,F2:F555))</f>
         <v>1</v>
       </c>
       <c r="L552" s="1" t="s">
@@ -16313,7 +16313,7 @@
       </c>
       <c r="Q552" s="0" t="n">
         <f aca="false">AVERAGE(benders_results_0:benders_results_15!K552:K552)</f>
-        <v>132.5</v>
+        <v>127.25</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16345,8 +16345,8 @@
         <v>574</v>
       </c>
       <c r="K553" s="1" t="n">
-        <f aca="false">AVERAGEIF(G20:G555,"&lt;&gt;*inf")</f>
-        <v>123.507429561201</v>
+        <f aca="false">AVERAGEIF(G2:G555,"&lt;&gt;*inf")</f>
+        <v>124.376928888889</v>
       </c>
       <c r="L553" s="1" t="s">
         <v>569</v>
@@ -16356,7 +16356,7 @@
       </c>
       <c r="Q553" s="0" t="n">
         <f aca="false">AVERAGE(benders_results_0:benders_results_15!K553:K553)</f>
-        <v>127.527629817758</v>
+        <v>130.693815096066</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16388,8 +16388,8 @@
         <v>577</v>
       </c>
       <c r="K554" s="1" t="n">
-        <f aca="false">AVERAGE(H20:H555)</f>
-        <v>1484.67742350746</v>
+        <f aca="false">AVERAGE(H2:H555)</f>
+        <v>1453.9843700361</v>
       </c>
       <c r="L554" s="1" t="s">
         <v>578</v>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="Q554" s="0" t="n">
         <f aca="false">AVERAGE(benders_results_0:benders_results_15!K554:K554)</f>
-        <v>4372.11657462687</v>
+        <v>4366.19395261733</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16431,8 +16431,8 @@
         <v>581</v>
       </c>
       <c r="K555" s="1" t="n">
-        <f aca="false">AVERAGEIF(H20:H555,"&lt;7200")</f>
-        <v>125.143415704388</v>
+        <f aca="false">AVERAGEIF(H2:H555,"&lt;7200")</f>
+        <v>126.016313333333</v>
       </c>
       <c r="L555" s="1"/>
     </row>
@@ -16454,8 +16454,8 @@
   </sheetPr>
   <dimension ref="A1:L555"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H536" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P547" activeCellId="0" sqref="P547"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H544" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I585" activeCellId="0" sqref="I585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30696,8 +30696,8 @@
         <v>557</v>
       </c>
       <c r="K547" s="0" t="n">
-        <f aca="false">100*COUNTIF(E20:E555,0)/ROWS(E20:E555)</f>
-        <v>39.5522388059701</v>
+        <f aca="false">100*COUNTIF(E2:E555,0)/ROWS(E2:E555)</f>
+        <v>39.3501805054152</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30729,8 +30729,8 @@
         <v>560</v>
       </c>
       <c r="K548" s="1" t="n">
-        <f aca="false">COUNTIF(E20:E555,0)</f>
-        <v>212</v>
+        <f aca="false">COUNTIF(E2:E555,0)</f>
+        <v>218</v>
       </c>
       <c r="L548" s="1"/>
     </row>
@@ -30763,8 +30763,8 @@
         <v>562</v>
       </c>
       <c r="K549" s="1" t="n">
-        <f aca="false">AVERAGEIF(E20:E555,"&lt;&gt;*nan")</f>
-        <v>0.109132420091324</v>
+        <f aca="false">AVERAGEIF(E2:E555,"&lt;&gt;*nan")</f>
+        <v>0.111285714285714</v>
       </c>
       <c r="L549" s="1" t="s">
         <v>563</v>
@@ -30799,8 +30799,8 @@
         <v>566</v>
       </c>
       <c r="K550" s="1" t="n">
-        <f aca="false">AVERAGEIFS(E20:E555,E20:E555,"&lt;&gt;*nan",E20:E555,"&lt;&gt;0")</f>
-        <v>0.211504424778761</v>
+        <f aca="false">AVERAGEIFS(E2:E555,E2:E555,"&lt;&gt;*nan",E2:E555,"&lt;&gt;0")</f>
+        <v>0.213649789029536</v>
       </c>
       <c r="L550" s="1" t="s">
         <v>563</v>
@@ -30835,8 +30835,8 @@
         <v>568</v>
       </c>
       <c r="K551" s="1" t="n">
-        <f aca="false">AVERAGEIF(F20:F555,"&lt;&gt;0")</f>
-        <v>345.189497716895</v>
+        <f aca="false">AVERAGEIF(F2:F555,"&lt;&gt;0")</f>
+        <v>337.701098901099</v>
       </c>
       <c r="L551" s="1" t="s">
         <v>569</v>
@@ -30871,8 +30871,8 @@
         <v>571</v>
       </c>
       <c r="K552" s="1" t="n">
-        <f aca="false">MEDIAN(IF(F20:F555&lt;&gt;0,F20:F555))</f>
-        <v>173</v>
+        <f aca="false">MEDIAN(IF(F2:F555&lt;&gt;0,F2:F555))</f>
+        <v>171</v>
       </c>
       <c r="L552" s="1" t="s">
         <v>569</v>
@@ -30907,8 +30907,8 @@
         <v>574</v>
       </c>
       <c r="K553" s="1" t="n">
-        <f aca="false">AVERAGEIF(G20:G555,"&lt;&gt;*inf")</f>
-        <v>124.838376712329</v>
+        <f aca="false">AVERAGEIF(G2:G555,"&lt;&gt;*inf")</f>
+        <v>128.703463736264</v>
       </c>
       <c r="L553" s="1" t="s">
         <v>569</v>
@@ -30943,8 +30943,8 @@
         <v>577</v>
       </c>
       <c r="K554" s="1" t="n">
-        <f aca="false">AVERAGE(H20:H555)</f>
-        <v>5181.70813432836</v>
+        <f aca="false">AVERAGE(H2:H555)</f>
+        <v>5191.60950180506</v>
       </c>
       <c r="L554" s="1" t="s">
         <v>578</v>
@@ -30979,8 +30979,8 @@
         <v>581</v>
       </c>
       <c r="K555" s="1" t="n">
-        <f aca="false">AVERAGEIF(H20:H555,"&lt;7200")</f>
-        <v>2097.14886792453</v>
+        <f aca="false">AVERAGEIF(H2:H555,"&lt;7200")</f>
+        <v>2096.10855045872</v>
       </c>
       <c r="L555" s="1"/>
     </row>
@@ -31003,7 +31003,7 @@
   <dimension ref="A1:L555"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A523" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J547" activeCellId="0" sqref="J547"/>
+      <selection pane="topLeft" activeCell="K547" activeCellId="0" sqref="K547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45244,8 +45244,8 @@
         <v>557</v>
       </c>
       <c r="K547" s="0" t="n">
-        <f aca="false">100*COUNTIF(E20:E555,0)/ROWS(E20:E555)</f>
-        <v>36.7537313432836</v>
+        <f aca="false">100*COUNTIF(E2:E555,0)/ROWS(E2:E555)</f>
+        <v>36.6425992779783</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45277,8 +45277,8 @@
         <v>560</v>
       </c>
       <c r="K548" s="1" t="n">
-        <f aca="false">COUNTIF(E20:E555,0)</f>
-        <v>197</v>
+        <f aca="false">COUNTIF(E2:E555,0)</f>
+        <v>203</v>
       </c>
       <c r="L548" s="1"/>
     </row>
@@ -45311,8 +45311,8 @@
         <v>562</v>
       </c>
       <c r="K549" s="1" t="n">
-        <f aca="false">AVERAGEIF(E20:E555,"&lt;&gt;*nan")</f>
-        <v>0.123114416475973</v>
+        <f aca="false">AVERAGEIF(E2:E555,"&lt;&gt;*nan")</f>
+        <v>0.125209251101322</v>
       </c>
       <c r="L549" s="1" t="s">
         <v>563</v>
@@ -45347,8 +45347,8 @@
         <v>566</v>
       </c>
       <c r="K550" s="1" t="n">
-        <f aca="false">AVERAGEIFS(E20:E555,E20:E555,"&lt;&gt;*nan",E20:E555,"&lt;&gt;0")</f>
-        <v>0.224170833333333</v>
+        <f aca="false">AVERAGEIFS(E2:E555,E2:E555,"&lt;&gt;*nan",E2:E555,"&lt;&gt;0")</f>
+        <v>0.226474103585657</v>
       </c>
       <c r="L550" s="1" t="s">
         <v>563</v>
@@ -45383,8 +45383,8 @@
         <v>568</v>
       </c>
       <c r="K551" s="1" t="n">
-        <f aca="false">AVERAGEIF(F20:F555,"&lt;&gt;0")</f>
-        <v>335.546910755149</v>
+        <f aca="false">AVERAGEIF(F2:F555,"&lt;&gt;0")</f>
+        <v>328.466960352423</v>
       </c>
       <c r="L551" s="1" t="s">
         <v>569</v>
@@ -45419,8 +45419,8 @@
         <v>571</v>
       </c>
       <c r="K552" s="1" t="n">
-        <f aca="false">MEDIAN(IF(F20:F555&lt;&gt;0,F20:F555))</f>
-        <v>178.5</v>
+        <f aca="false">MEDIAN(IF(F2:F555&lt;&gt;0,F2:F555))</f>
+        <v>169</v>
       </c>
       <c r="L552" s="1" t="s">
         <v>569</v>
@@ -45455,8 +45455,8 @@
         <v>574</v>
       </c>
       <c r="K553" s="1" t="n">
-        <f aca="false">AVERAGEIF(G20:G555,"&lt;&gt;*inf")</f>
-        <v>126.587292906179</v>
+        <f aca="false">AVERAGEIF(G2:G555,"&lt;&gt;*inf")</f>
+        <v>131.179830396476</v>
       </c>
       <c r="L553" s="1" t="s">
         <v>569</v>
@@ -45491,8 +45491,8 @@
         <v>577</v>
       </c>
       <c r="K554" s="1" t="n">
-        <f aca="false">AVERAGE(H20:H555)</f>
-        <v>5406.23576679105</v>
+        <f aca="false">AVERAGE(H2:H555)</f>
+        <v>5405.68921480145</v>
       </c>
       <c r="L554" s="1" t="s">
         <v>578</v>
@@ -45527,8 +45527,8 @@
         <v>581</v>
       </c>
       <c r="K555" s="1" t="n">
-        <f aca="false">AVERAGEIF(H20:H555,"&lt;7200")</f>
-        <v>2319.5044213198</v>
+        <f aca="false">AVERAGEIF(H2:H555,"&lt;7200")</f>
+        <v>2303.21096059113</v>
       </c>
       <c r="L555" s="1"/>
     </row>
@@ -45551,7 +45551,7 @@
   <dimension ref="A1:L555"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A531" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J550" activeCellId="0" sqref="J550"/>
+      <selection pane="topLeft" activeCell="K547" activeCellId="0" sqref="K547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -59792,8 +59792,8 @@
         <v>557</v>
       </c>
       <c r="K547" s="0" t="n">
-        <f aca="false">100*COUNTIF(E20:E555,0)/ROWS(E20:E555)</f>
-        <v>36.7537313432836</v>
+        <f aca="false">100*COUNTIF(E2:E555,0)/ROWS(E2:E555)</f>
+        <v>36.8231046931408</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59825,8 +59825,8 @@
         <v>560</v>
       </c>
       <c r="K548" s="1" t="n">
-        <f aca="false">COUNTIF(E20:E555,0)</f>
-        <v>197</v>
+        <f aca="false">COUNTIF(E2:E555,0)</f>
+        <v>204</v>
       </c>
       <c r="L548" s="1"/>
     </row>
@@ -59859,8 +59859,8 @@
         <v>562</v>
       </c>
       <c r="K549" s="1" t="n">
-        <f aca="false">AVERAGEIF(E20:E555,"&lt;&gt;*nan")</f>
-        <v>0.124753424657534</v>
+        <f aca="false">AVERAGEIF(E2:E555,"&lt;&gt;*nan")</f>
+        <v>0.126571428571429</v>
       </c>
       <c r="L549" s="1" t="s">
         <v>563</v>
@@ -59895,8 +59895,8 @@
         <v>566</v>
       </c>
       <c r="K550" s="1" t="n">
-        <f aca="false">AVERAGEIFS(E20:E555,E20:E555,"&lt;&gt;*nan",E20:E555,"&lt;&gt;0")</f>
-        <v>0.226730290456432</v>
+        <f aca="false">AVERAGEIFS(E2:E555,E2:E555,"&lt;&gt;*nan",E2:E555,"&lt;&gt;0")</f>
+        <v>0.229442231075697</v>
       </c>
       <c r="L550" s="1" t="s">
         <v>563</v>
@@ -59931,8 +59931,8 @@
         <v>568</v>
       </c>
       <c r="K551" s="1" t="n">
-        <f aca="false">AVERAGEIF(F20:F555,"&lt;&gt;0")</f>
-        <v>336.527397260274</v>
+        <f aca="false">AVERAGEIF(F2:F555,"&lt;&gt;0")</f>
+        <v>329.417582417582</v>
       </c>
       <c r="L551" s="1" t="s">
         <v>569</v>
@@ -59967,8 +59967,8 @@
         <v>571</v>
       </c>
       <c r="K552" s="1" t="n">
-        <f aca="false">MEDIAN(IF(F20:F555&lt;&gt;0,F20:F555))</f>
-        <v>177.5</v>
+        <f aca="false">MEDIAN(IF(F2:F555&lt;&gt;0,F2:F555))</f>
+        <v>168</v>
       </c>
       <c r="L552" s="1" t="s">
         <v>569</v>
@@ -60003,8 +60003,8 @@
         <v>574</v>
       </c>
       <c r="K553" s="1" t="n">
-        <f aca="false">AVERAGEIF(G20:G555,"&lt;&gt;*inf")</f>
-        <v>135.177420091324</v>
+        <f aca="false">AVERAGEIF(G2:G555,"&lt;&gt;*inf")</f>
+        <v>138.515037362637</v>
       </c>
       <c r="L553" s="1" t="s">
         <v>569</v>
@@ -60039,8 +60039,8 @@
         <v>577</v>
       </c>
       <c r="K554" s="1" t="n">
-        <f aca="false">AVERAGE(H20:H555)</f>
-        <v>5415.8449738806</v>
+        <f aca="false">AVERAGE(H2:H555)</f>
+        <v>5413.49272382672</v>
       </c>
       <c r="L554" s="1" t="s">
         <v>578</v>
@@ -60075,8 +60075,8 @@
         <v>581</v>
       </c>
       <c r="K555" s="1" t="n">
-        <f aca="false">AVERAGEIF(H20:H555,"&lt;7200")</f>
-        <v>2345.64926903553</v>
+        <f aca="false">AVERAGEIF(H2:H555,"&lt;7200")</f>
+        <v>2348.40671078431</v>
       </c>
       <c r="L555" s="1"/>
     </row>

--- a/code/results/storm_j20_7200/benders_results_j20.xlsx
+++ b/code/results/storm_j20_7200/benders_results_j20.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="benders_results_0" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="587">
   <si>
     <t xml:space="preserve">instance</t>
   </si>
@@ -1770,6 +1770,21 @@
   <si>
     <t xml:space="preserve">avg. opt solve time</t>
   </si>
+  <si>
+    <t xml:space="preserve">total_n_solved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Gamma non-zero)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_n_nonopt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg nonopt gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_n_feasible</t>
+  </si>
 </sst>
 </file>
 
@@ -1871,7 +1886,7 @@
   </sheetPr>
   <dimension ref="A1:Q555"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B520" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B520" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K547" activeCellId="0" sqref="K547"/>
     </sheetView>
   </sheetViews>
@@ -16452,10 +16467,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L555"/>
+  <dimension ref="A1:L560"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H544" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I585" activeCellId="0" sqref="I585"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A537" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K558" activeCellId="0" sqref="K558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30983,6 +30998,54 @@
         <v>2096.10855045872</v>
       </c>
       <c r="L555" s="1"/>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J557" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="K557" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E555,"=0")+COUNTIF(benders_results_10!E2:E555,"=0")+COUNTIF(benders_results_15!E2:E555,"=0")</f>
+        <v>625</v>
+      </c>
+      <c r="L557" s="0" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J558" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="K558" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E555,"&gt;0")+COUNTIF(benders_results_10!E2:E555,"&gt;0")+COUNTIF(benders_results_15!E2:E555,"&gt;0")</f>
+        <v>739</v>
+      </c>
+      <c r="L558" s="0" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J559" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="K559" s="0" t="n">
+        <f aca="false">(SUM(E2:E555)+SUM(benders_results_10!E2:E555) + SUM(benders_results_15!E2:E555))/K558</f>
+        <v>0.223369418132612</v>
+      </c>
+      <c r="L559" s="0" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J560" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="K560" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E555,"&lt;&gt;nan")+COUNTIF(benders_results_10!E2:E555,"&lt;&gt;nan")+COUNTIF(benders_results_15!E2:E555,"&lt;&gt;nan")</f>
+        <v>1364</v>
+      </c>
+      <c r="L560" s="0" t="s">
+        <v>583</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -31002,7 +31065,7 @@
   </sheetPr>
   <dimension ref="A1:L555"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A523" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A526" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K547" activeCellId="0" sqref="K547"/>
     </sheetView>
   </sheetViews>
@@ -45550,7 +45613,7 @@
   </sheetPr>
   <dimension ref="A1:L555"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A531" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A538" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K547" activeCellId="0" sqref="K547"/>
     </sheetView>
   </sheetViews>
